--- a/Documentacion/Diagrama de Actividades/Diagrama de Actividades.xlsx
+++ b/Documentacion/Diagrama de Actividades/Diagrama de Actividades.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ext_papalominos\Documents\GitHub\Portafolio2018\Documentacion\Diagrama de Actividades\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CETECOM\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t>Diagrama de Actividades</t>
   </si>
@@ -72,7 +72,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +82,14 @@
     </font>
     <font>
       <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -108,7 +116,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -117,21 +125,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -142,32 +135,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -215,48 +182,167 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="15" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,7 +626,7 @@
   <dimension ref="C1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,22 +638,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
     </row>
     <row r="2" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-    </row>
-    <row r="3" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -575,114 +661,141 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D4" s="15">
+      <c r="D4" s="11">
         <v>43174</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="12">
+      <c r="E4" s="12"/>
+      <c r="F4" s="20">
         <v>43180</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="20">
         <v>43184</v>
       </c>
-      <c r="H4" s="13"/>
+      <c r="H4" s="7"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="13"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
     <row r="6" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="D6" s="13"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="D8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
     </row>
     <row r="11" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="E11" s="10"/>
+      <c r="F11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="D12" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
+      <c r="D15" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
